--- a/results/charge_schedule.xlsx
+++ b/results/charge_schedule.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1093"/>
+  <dimension ref="A1:B1086"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2699,10 +2699,10 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>36613</v>
+        <v>36614</v>
       </c>
       <c r="B283" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="284">
@@ -2710,15 +2710,15 @@
         <v>36614</v>
       </c>
       <c r="B284" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>36614</v>
+        <v>36615</v>
       </c>
       <c r="B285" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="286">
@@ -2726,15 +2726,15 @@
         <v>36615</v>
       </c>
       <c r="B286" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>36615</v>
+        <v>36616</v>
       </c>
       <c r="B287" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="288">
@@ -2742,7 +2742,7 @@
         <v>36616</v>
       </c>
       <c r="B288" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="289">
@@ -2750,7 +2750,7 @@
         <v>36616</v>
       </c>
       <c r="B289" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="290">
@@ -2758,31 +2758,31 @@
         <v>36616</v>
       </c>
       <c r="B290" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>36616</v>
+        <v>36617</v>
       </c>
       <c r="B291" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>36616</v>
+        <v>36617</v>
       </c>
       <c r="B292" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>36616</v>
+        <v>36617</v>
       </c>
       <c r="B293" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="294">
@@ -2790,7 +2790,7 @@
         <v>36617</v>
       </c>
       <c r="B294" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="295">
@@ -2798,39 +2798,39 @@
         <v>36617</v>
       </c>
       <c r="B295" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>36617</v>
+        <v>36618</v>
       </c>
       <c r="B296" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>36617</v>
+        <v>36618</v>
       </c>
       <c r="B297" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>36617</v>
+        <v>36618</v>
       </c>
       <c r="B298" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>36617</v>
+        <v>36618</v>
       </c>
       <c r="B299" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="300">
@@ -2838,7 +2838,7 @@
         <v>36618</v>
       </c>
       <c r="B300" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="301">
@@ -2846,47 +2846,47 @@
         <v>36618</v>
       </c>
       <c r="B301" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>36618</v>
+        <v>36619</v>
       </c>
       <c r="B302" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>36618</v>
+        <v>36619</v>
       </c>
       <c r="B303" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>36618</v>
+        <v>36619</v>
       </c>
       <c r="B304" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>36618</v>
+        <v>36619</v>
       </c>
       <c r="B305" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>36618</v>
+        <v>36619</v>
       </c>
       <c r="B306" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="307">
@@ -2894,7 +2894,7 @@
         <v>36619</v>
       </c>
       <c r="B307" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="308">
@@ -2902,47 +2902,47 @@
         <v>36619</v>
       </c>
       <c r="B308" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>36619</v>
+        <v>36620</v>
       </c>
       <c r="B309" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>36619</v>
+        <v>36620</v>
       </c>
       <c r="B310" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>36619</v>
+        <v>36620</v>
       </c>
       <c r="B311" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>36619</v>
+        <v>36620</v>
       </c>
       <c r="B312" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>36619</v>
+        <v>36620</v>
       </c>
       <c r="B313" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="314">
@@ -2950,7 +2950,7 @@
         <v>36620</v>
       </c>
       <c r="B314" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="315">
@@ -2958,60 +2958,60 @@
         <v>36620</v>
       </c>
       <c r="B315" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>36620</v>
+        <v>36621</v>
       </c>
       <c r="B316" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>36620</v>
+        <v>36621</v>
       </c>
       <c r="B317" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>36620</v>
+        <v>36622</v>
       </c>
       <c r="B318" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>36621</v>
+        <v>36622</v>
       </c>
       <c r="B319" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>36621</v>
+        <v>36623</v>
       </c>
       <c r="B320" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>36622</v>
+        <v>36623</v>
       </c>
       <c r="B321" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>36622</v>
+        <v>36624</v>
       </c>
       <c r="B322" t="n">
         <v>14</v>
@@ -3019,7 +3019,7 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>36623</v>
+        <v>36624</v>
       </c>
       <c r="B323" t="n">
         <v>13</v>
@@ -3027,15 +3027,15 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>36623</v>
+        <v>36625</v>
       </c>
       <c r="B324" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>36624</v>
+        <v>36625</v>
       </c>
       <c r="B325" t="n">
         <v>14</v>
@@ -3043,10 +3043,10 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>36624</v>
+        <v>36625</v>
       </c>
       <c r="B326" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="327">
@@ -3054,7 +3054,7 @@
         <v>36625</v>
       </c>
       <c r="B327" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="328">
@@ -3062,76 +3062,76 @@
         <v>36625</v>
       </c>
       <c r="B328" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>36625</v>
+        <v>36626</v>
       </c>
       <c r="B329" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>36625</v>
+        <v>36626</v>
       </c>
       <c r="B330" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>36625</v>
+        <v>36627</v>
       </c>
       <c r="B331" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>36625</v>
+        <v>36627</v>
       </c>
       <c r="B332" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>36625</v>
+        <v>36627</v>
       </c>
       <c r="B333" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>36625</v>
+        <v>36627</v>
       </c>
       <c r="B334" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>36626</v>
+        <v>36627</v>
       </c>
       <c r="B335" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>36626</v>
+        <v>36627</v>
       </c>
       <c r="B336" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>36626</v>
+        <v>36628</v>
       </c>
       <c r="B337" t="n">
         <v>15</v>
@@ -3139,15 +3139,15 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>36626</v>
+        <v>36628</v>
       </c>
       <c r="B338" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>36627</v>
+        <v>36628</v>
       </c>
       <c r="B339" t="n">
         <v>13</v>
@@ -3155,7 +3155,7 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>36627</v>
+        <v>36629</v>
       </c>
       <c r="B340" t="n">
         <v>14</v>
@@ -3163,71 +3163,71 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>36627</v>
+        <v>36629</v>
       </c>
       <c r="B341" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>36627</v>
+        <v>36629</v>
       </c>
       <c r="B342" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>36627</v>
+        <v>36630</v>
       </c>
       <c r="B343" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>36627</v>
+        <v>36630</v>
       </c>
       <c r="B344" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>36628</v>
+        <v>36631</v>
       </c>
       <c r="B345" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>36628</v>
+        <v>36631</v>
       </c>
       <c r="B346" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>36628</v>
+        <v>36631</v>
       </c>
       <c r="B347" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>36629</v>
+        <v>36631</v>
       </c>
       <c r="B348" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>36629</v>
+        <v>36632</v>
       </c>
       <c r="B349" t="n">
         <v>13</v>
@@ -3235,15 +3235,15 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>36629</v>
+        <v>36632</v>
       </c>
       <c r="B350" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>36630</v>
+        <v>36633</v>
       </c>
       <c r="B351" t="n">
         <v>15</v>
@@ -3251,7 +3251,7 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>36630</v>
+        <v>36633</v>
       </c>
       <c r="B352" t="n">
         <v>14</v>
@@ -3259,7 +3259,7 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>36631</v>
+        <v>36634</v>
       </c>
       <c r="B353" t="n">
         <v>16</v>
@@ -3267,7 +3267,7 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>36631</v>
+        <v>36634</v>
       </c>
       <c r="B354" t="n">
         <v>15</v>
@@ -3275,95 +3275,95 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>36631</v>
+        <v>36635</v>
       </c>
       <c r="B355" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>36631</v>
+        <v>36635</v>
       </c>
       <c r="B356" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>36632</v>
+        <v>36636</v>
       </c>
       <c r="B357" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>36632</v>
+        <v>36636</v>
       </c>
       <c r="B358" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>36633</v>
+        <v>36637</v>
       </c>
       <c r="B359" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>36633</v>
+        <v>36637</v>
       </c>
       <c r="B360" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>36634</v>
+        <v>36638</v>
       </c>
       <c r="B361" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>36634</v>
+        <v>36638</v>
       </c>
       <c r="B362" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>36635</v>
+        <v>36638</v>
       </c>
       <c r="B363" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>36635</v>
+        <v>36639</v>
       </c>
       <c r="B364" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>36636</v>
+        <v>36639</v>
       </c>
       <c r="B365" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>36636</v>
+        <v>36639</v>
       </c>
       <c r="B366" t="n">
         <v>13</v>
@@ -3371,55 +3371,55 @@
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>36637</v>
+        <v>36640</v>
       </c>
       <c r="B367" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>36637</v>
+        <v>36640</v>
       </c>
       <c r="B368" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>36638</v>
+        <v>36640</v>
       </c>
       <c r="B369" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>36638</v>
+        <v>36641</v>
       </c>
       <c r="B370" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>36638</v>
+        <v>36641</v>
       </c>
       <c r="B371" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>36639</v>
+        <v>36641</v>
       </c>
       <c r="B372" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>36639</v>
+        <v>36641</v>
       </c>
       <c r="B373" t="n">
         <v>16</v>
@@ -3427,31 +3427,31 @@
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>36639</v>
+        <v>36642</v>
       </c>
       <c r="B374" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>36640</v>
+        <v>36642</v>
       </c>
       <c r="B375" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>36640</v>
+        <v>36643</v>
       </c>
       <c r="B376" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>36640</v>
+        <v>36643</v>
       </c>
       <c r="B377" t="n">
         <v>14</v>
@@ -3459,7 +3459,7 @@
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>36641</v>
+        <v>36644</v>
       </c>
       <c r="B378" t="n">
         <v>14</v>
@@ -3467,39 +3467,39 @@
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>36641</v>
+        <v>36644</v>
       </c>
       <c r="B379" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>36641</v>
+        <v>36645</v>
       </c>
       <c r="B380" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>36641</v>
+        <v>36645</v>
       </c>
       <c r="B381" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>36642</v>
+        <v>36645</v>
       </c>
       <c r="B382" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>36642</v>
+        <v>36646</v>
       </c>
       <c r="B383" t="n">
         <v>13</v>
@@ -3507,15 +3507,15 @@
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>36643</v>
+        <v>36646</v>
       </c>
       <c r="B384" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>36643</v>
+        <v>36646</v>
       </c>
       <c r="B385" t="n">
         <v>15</v>
@@ -3523,95 +3523,95 @@
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>36644</v>
+        <v>36646</v>
       </c>
       <c r="B386" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>36644</v>
+        <v>36647</v>
       </c>
       <c r="B387" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>36645</v>
+        <v>36647</v>
       </c>
       <c r="B388" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>36645</v>
+        <v>36648</v>
       </c>
       <c r="B389" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>36645</v>
+        <v>36648</v>
       </c>
       <c r="B390" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>36646</v>
+        <v>36649</v>
       </c>
       <c r="B391" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>36646</v>
+        <v>36649</v>
       </c>
       <c r="B392" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>36646</v>
+        <v>36650</v>
       </c>
       <c r="B393" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>36646</v>
+        <v>36651</v>
       </c>
       <c r="B394" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>36647</v>
+        <v>36652</v>
       </c>
       <c r="B395" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>36647</v>
+        <v>36652</v>
       </c>
       <c r="B396" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>36648</v>
+        <v>36653</v>
       </c>
       <c r="B397" t="n">
         <v>14</v>
@@ -3619,15 +3619,15 @@
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>36648</v>
+        <v>36653</v>
       </c>
       <c r="B398" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>36649</v>
+        <v>36654</v>
       </c>
       <c r="B399" t="n">
         <v>16</v>
@@ -3635,15 +3635,15 @@
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>36649</v>
+        <v>36654</v>
       </c>
       <c r="B400" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>36650</v>
+        <v>36655</v>
       </c>
       <c r="B401" t="n">
         <v>14</v>
@@ -3651,7 +3651,7 @@
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>36650</v>
+        <v>36656</v>
       </c>
       <c r="B402" t="n">
         <v>13</v>
@@ -3659,23 +3659,23 @@
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>36651</v>
+        <v>36656</v>
       </c>
       <c r="B403" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>36652</v>
+        <v>36657</v>
       </c>
       <c r="B404" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>36652</v>
+        <v>36657</v>
       </c>
       <c r="B405" t="n">
         <v>14</v>
@@ -3683,63 +3683,63 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>36653</v>
+        <v>36658</v>
       </c>
       <c r="B406" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>36654</v>
+        <v>36659</v>
       </c>
       <c r="B407" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>36654</v>
+        <v>36659</v>
       </c>
       <c r="B408" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>36655</v>
+        <v>36659</v>
       </c>
       <c r="B409" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>36656</v>
+        <v>36660</v>
       </c>
       <c r="B410" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>36656</v>
+        <v>36660</v>
       </c>
       <c r="B411" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>36657</v>
+        <v>36661</v>
       </c>
       <c r="B412" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>36657</v>
+        <v>36661</v>
       </c>
       <c r="B413" t="n">
         <v>14</v>
@@ -3747,7 +3747,7 @@
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>36658</v>
+        <v>36662</v>
       </c>
       <c r="B414" t="n">
         <v>13</v>
@@ -3755,7 +3755,7 @@
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>36659</v>
+        <v>36662</v>
       </c>
       <c r="B415" t="n">
         <v>14</v>
@@ -3763,7 +3763,7 @@
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>36659</v>
+        <v>36662</v>
       </c>
       <c r="B416" t="n">
         <v>15</v>
@@ -3771,15 +3771,15 @@
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>36659</v>
+        <v>36663</v>
       </c>
       <c r="B417" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>36660</v>
+        <v>36664</v>
       </c>
       <c r="B418" t="n">
         <v>14</v>
@@ -3787,39 +3787,39 @@
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>36661</v>
+        <v>36665</v>
       </c>
       <c r="B419" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>36661</v>
+        <v>36666</v>
       </c>
       <c r="B420" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>36662</v>
+        <v>36666</v>
       </c>
       <c r="B421" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>36662</v>
+        <v>36667</v>
       </c>
       <c r="B422" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>36663</v>
+        <v>36667</v>
       </c>
       <c r="B423" t="n">
         <v>13</v>
@@ -3827,63 +3827,63 @@
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>36664</v>
+        <v>36668</v>
       </c>
       <c r="B424" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>36665</v>
+        <v>36668</v>
       </c>
       <c r="B425" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>36665</v>
+        <v>36668</v>
       </c>
       <c r="B426" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>36666</v>
+        <v>36668</v>
       </c>
       <c r="B427" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>36666</v>
+        <v>36668</v>
       </c>
       <c r="B428" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>36667</v>
+        <v>36669</v>
       </c>
       <c r="B429" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>36667</v>
+        <v>36669</v>
       </c>
       <c r="B430" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>36668</v>
+        <v>36670</v>
       </c>
       <c r="B431" t="n">
         <v>13</v>
@@ -3891,31 +3891,31 @@
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>36668</v>
+        <v>36670</v>
       </c>
       <c r="B432" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>36668</v>
+        <v>36671</v>
       </c>
       <c r="B433" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>36668</v>
+        <v>36672</v>
       </c>
       <c r="B434" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>36669</v>
+        <v>36672</v>
       </c>
       <c r="B435" t="n">
         <v>13</v>
@@ -3923,23 +3923,23 @@
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>36669</v>
+        <v>36673</v>
       </c>
       <c r="B436" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>36670</v>
+        <v>36673</v>
       </c>
       <c r="B437" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>36670</v>
+        <v>36673</v>
       </c>
       <c r="B438" t="n">
         <v>12</v>
@@ -3947,127 +3947,127 @@
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>36671</v>
+        <v>36673</v>
       </c>
       <c r="B439" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>36672</v>
+        <v>36674</v>
       </c>
       <c r="B440" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>36672</v>
+        <v>36675</v>
       </c>
       <c r="B441" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>36673</v>
+        <v>36675</v>
       </c>
       <c r="B442" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>36673</v>
+        <v>36676</v>
       </c>
       <c r="B443" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>36673</v>
+        <v>36676</v>
       </c>
       <c r="B444" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>36673</v>
+        <v>36676</v>
       </c>
       <c r="B445" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>36674</v>
+        <v>36677</v>
       </c>
       <c r="B446" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>36675</v>
+        <v>36677</v>
       </c>
       <c r="B447" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>36675</v>
+        <v>36677</v>
       </c>
       <c r="B448" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>36675</v>
+        <v>36678</v>
       </c>
       <c r="B449" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>36675</v>
+        <v>36678</v>
       </c>
       <c r="B450" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>36676</v>
+        <v>36678</v>
       </c>
       <c r="B451" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>36676</v>
+        <v>36678</v>
       </c>
       <c r="B452" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>36676</v>
+        <v>36678</v>
       </c>
       <c r="B453" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>36677</v>
+        <v>36679</v>
       </c>
       <c r="B454" t="n">
         <v>15</v>
@@ -4075,55 +4075,55 @@
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>36677</v>
+        <v>36679</v>
       </c>
       <c r="B455" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>36678</v>
+        <v>36680</v>
       </c>
       <c r="B456" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>36678</v>
+        <v>36680</v>
       </c>
       <c r="B457" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>36678</v>
+        <v>36681</v>
       </c>
       <c r="B458" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>36678</v>
+        <v>36681</v>
       </c>
       <c r="B459" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>36678</v>
+        <v>36682</v>
       </c>
       <c r="B460" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>36679</v>
+        <v>36682</v>
       </c>
       <c r="B461" t="n">
         <v>15</v>
@@ -4131,39 +4131,39 @@
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>36679</v>
+        <v>36682</v>
       </c>
       <c r="B462" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>36680</v>
+        <v>36682</v>
       </c>
       <c r="B463" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>36680</v>
+        <v>36683</v>
       </c>
       <c r="B464" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>36681</v>
+        <v>36683</v>
       </c>
       <c r="B465" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>36681</v>
+        <v>36684</v>
       </c>
       <c r="B466" t="n">
         <v>15</v>
@@ -4171,7 +4171,7 @@
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>36682</v>
+        <v>36684</v>
       </c>
       <c r="B467" t="n">
         <v>14</v>
@@ -4179,15 +4179,15 @@
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>36682</v>
+        <v>36684</v>
       </c>
       <c r="B468" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>36682</v>
+        <v>36684</v>
       </c>
       <c r="B469" t="n">
         <v>16</v>
@@ -4195,15 +4195,15 @@
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>36682</v>
+        <v>36684</v>
       </c>
       <c r="B470" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>36683</v>
+        <v>36685</v>
       </c>
       <c r="B471" t="n">
         <v>14</v>
@@ -4211,23 +4211,23 @@
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>36684</v>
+        <v>36685</v>
       </c>
       <c r="B472" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>36684</v>
+        <v>36685</v>
       </c>
       <c r="B473" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>36684</v>
+        <v>36686</v>
       </c>
       <c r="B474" t="n">
         <v>13</v>
@@ -4235,63 +4235,63 @@
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>36684</v>
+        <v>36686</v>
       </c>
       <c r="B475" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>36684</v>
+        <v>36687</v>
       </c>
       <c r="B476" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>36684</v>
+        <v>36687</v>
       </c>
       <c r="B477" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>36685</v>
+        <v>36687</v>
       </c>
       <c r="B478" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>36685</v>
+        <v>36688</v>
       </c>
       <c r="B479" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>36685</v>
+        <v>36688</v>
       </c>
       <c r="B480" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>36686</v>
+        <v>36689</v>
       </c>
       <c r="B481" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>36686</v>
+        <v>36689</v>
       </c>
       <c r="B482" t="n">
         <v>14</v>
@@ -4299,15 +4299,15 @@
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>36687</v>
+        <v>36689</v>
       </c>
       <c r="B483" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>36687</v>
+        <v>36690</v>
       </c>
       <c r="B484" t="n">
         <v>14</v>
@@ -4315,31 +4315,31 @@
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>36687</v>
+        <v>36690</v>
       </c>
       <c r="B485" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>36688</v>
+        <v>36690</v>
       </c>
       <c r="B486" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>36688</v>
+        <v>36690</v>
       </c>
       <c r="B487" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>36689</v>
+        <v>36690</v>
       </c>
       <c r="B488" t="n">
         <v>15</v>
@@ -4347,87 +4347,87 @@
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>36689</v>
+        <v>36690</v>
       </c>
       <c r="B489" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>36689</v>
+        <v>36690</v>
       </c>
       <c r="B490" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>36690</v>
+        <v>36691</v>
       </c>
       <c r="B491" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>36690</v>
+        <v>36691</v>
       </c>
       <c r="B492" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>36690</v>
+        <v>36691</v>
       </c>
       <c r="B493" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>36690</v>
+        <v>36691</v>
       </c>
       <c r="B494" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>36690</v>
+        <v>36692</v>
       </c>
       <c r="B495" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>36690</v>
+        <v>36692</v>
       </c>
       <c r="B496" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>36691</v>
+        <v>36693</v>
       </c>
       <c r="B497" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>36691</v>
+        <v>36693</v>
       </c>
       <c r="B498" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>36691</v>
+        <v>36694</v>
       </c>
       <c r="B499" t="n">
         <v>12</v>
@@ -4435,167 +4435,167 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>36691</v>
+        <v>36694</v>
       </c>
       <c r="B500" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>36692</v>
+        <v>36694</v>
       </c>
       <c r="B501" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>36692</v>
+        <v>36694</v>
       </c>
       <c r="B502" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>36693</v>
+        <v>36694</v>
       </c>
       <c r="B503" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>36693</v>
+        <v>36695</v>
       </c>
       <c r="B504" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>36694</v>
+        <v>36695</v>
       </c>
       <c r="B505" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>36694</v>
+        <v>36695</v>
       </c>
       <c r="B506" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>36694</v>
+        <v>36695</v>
       </c>
       <c r="B507" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>36694</v>
+        <v>36695</v>
       </c>
       <c r="B508" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>36694</v>
+        <v>36695</v>
       </c>
       <c r="B509" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>36694</v>
+        <v>36695</v>
       </c>
       <c r="B510" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>36695</v>
+        <v>36697</v>
       </c>
       <c r="B511" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>36695</v>
+        <v>36697</v>
       </c>
       <c r="B512" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>36695</v>
+        <v>36697</v>
       </c>
       <c r="B513" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>36695</v>
+        <v>36698</v>
       </c>
       <c r="B514" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>36695</v>
+        <v>36698</v>
       </c>
       <c r="B515" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>36695</v>
+        <v>36699</v>
       </c>
       <c r="B516" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>36695</v>
+        <v>36699</v>
       </c>
       <c r="B517" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>36695</v>
+        <v>36699</v>
       </c>
       <c r="B518" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>36695</v>
+        <v>36700</v>
       </c>
       <c r="B519" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>36697</v>
+        <v>36700</v>
       </c>
       <c r="B520" t="n">
         <v>13</v>
@@ -4603,15 +4603,15 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>36697</v>
+        <v>36701</v>
       </c>
       <c r="B521" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>36697</v>
+        <v>36701</v>
       </c>
       <c r="B522" t="n">
         <v>14</v>
@@ -4619,23 +4619,23 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>36698</v>
+        <v>36701</v>
       </c>
       <c r="B523" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>36698</v>
+        <v>36702</v>
       </c>
       <c r="B524" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>36699</v>
+        <v>36702</v>
       </c>
       <c r="B525" t="n">
         <v>14</v>
@@ -4643,15 +4643,15 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>36699</v>
+        <v>36702</v>
       </c>
       <c r="B526" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>36699</v>
+        <v>36702</v>
       </c>
       <c r="B527" t="n">
         <v>15</v>
@@ -4659,42 +4659,42 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>36700</v>
+        <v>36702</v>
       </c>
       <c r="B528" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>36700</v>
+        <v>36702</v>
       </c>
       <c r="B529" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>36701</v>
+        <v>36702</v>
       </c>
       <c r="B530" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>36701</v>
+        <v>36702</v>
       </c>
       <c r="B531" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>36701</v>
+        <v>36702</v>
       </c>
       <c r="B532" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="533">
@@ -4702,20 +4702,20 @@
         <v>36702</v>
       </c>
       <c r="B533" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>36702</v>
+        <v>36703</v>
       </c>
       <c r="B534" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>36702</v>
+        <v>36703</v>
       </c>
       <c r="B535" t="n">
         <v>12</v>
@@ -4723,167 +4723,167 @@
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>36702</v>
+        <v>36703</v>
       </c>
       <c r="B536" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>36702</v>
+        <v>36704</v>
       </c>
       <c r="B537" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>36702</v>
+        <v>36704</v>
       </c>
       <c r="B538" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>36702</v>
+        <v>36705</v>
       </c>
       <c r="B539" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>36702</v>
+        <v>36705</v>
       </c>
       <c r="B540" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>36703</v>
+        <v>36706</v>
       </c>
       <c r="B541" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>36703</v>
+        <v>36706</v>
       </c>
       <c r="B542" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>36703</v>
+        <v>36706</v>
       </c>
       <c r="B543" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>36704</v>
+        <v>36706</v>
       </c>
       <c r="B544" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>36704</v>
+        <v>36706</v>
       </c>
       <c r="B545" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>36705</v>
+        <v>36707</v>
       </c>
       <c r="B546" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>36705</v>
+        <v>36707</v>
       </c>
       <c r="B547" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>36706</v>
+        <v>36707</v>
       </c>
       <c r="B548" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>36706</v>
+        <v>36707</v>
       </c>
       <c r="B549" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>36706</v>
+        <v>36707</v>
       </c>
       <c r="B550" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>36706</v>
+        <v>36707</v>
       </c>
       <c r="B551" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>36706</v>
+        <v>36708</v>
       </c>
       <c r="B552" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>36706</v>
+        <v>36708</v>
       </c>
       <c r="B553" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>36706</v>
+        <v>36708</v>
       </c>
       <c r="B554" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>36707</v>
+        <v>36709</v>
       </c>
       <c r="B555" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>36707</v>
+        <v>36709</v>
       </c>
       <c r="B556" t="n">
         <v>14</v>
@@ -4891,23 +4891,23 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>36707</v>
+        <v>36710</v>
       </c>
       <c r="B557" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>36707</v>
+        <v>36710</v>
       </c>
       <c r="B558" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>36707</v>
+        <v>36710</v>
       </c>
       <c r="B559" t="n">
         <v>16</v>
@@ -4915,183 +4915,183 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>36707</v>
+        <v>36710</v>
       </c>
       <c r="B560" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>36707</v>
+        <v>36711</v>
       </c>
       <c r="B561" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>36707</v>
+        <v>36711</v>
       </c>
       <c r="B562" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>36707</v>
+        <v>36711</v>
       </c>
       <c r="B563" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>36708</v>
+        <v>36711</v>
       </c>
       <c r="B564" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>36709</v>
+        <v>36712</v>
       </c>
       <c r="B565" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>36709</v>
+        <v>36713</v>
       </c>
       <c r="B566" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>36710</v>
+        <v>36713</v>
       </c>
       <c r="B567" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>36710</v>
+        <v>36714</v>
       </c>
       <c r="B568" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>36710</v>
+        <v>36714</v>
       </c>
       <c r="B569" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>36710</v>
+        <v>36715</v>
       </c>
       <c r="B570" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>36711</v>
+        <v>36716</v>
       </c>
       <c r="B571" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>36711</v>
+        <v>36716</v>
       </c>
       <c r="B572" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>36711</v>
+        <v>36716</v>
       </c>
       <c r="B573" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>36711</v>
+        <v>36717</v>
       </c>
       <c r="B574" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>36712</v>
+        <v>36717</v>
       </c>
       <c r="B575" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>36712</v>
+        <v>36717</v>
       </c>
       <c r="B576" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>36713</v>
+        <v>36717</v>
       </c>
       <c r="B577" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>36713</v>
+        <v>36717</v>
       </c>
       <c r="B578" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>36713</v>
+        <v>36717</v>
       </c>
       <c r="B579" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>36714</v>
+        <v>36717</v>
       </c>
       <c r="B580" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>36714</v>
+        <v>36717</v>
       </c>
       <c r="B581" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>36715</v>
+        <v>36718</v>
       </c>
       <c r="B582" t="n">
         <v>14</v>
@@ -5099,55 +5099,55 @@
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>36716</v>
+        <v>36718</v>
       </c>
       <c r="B583" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>36716</v>
+        <v>36718</v>
       </c>
       <c r="B584" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>36716</v>
+        <v>36719</v>
       </c>
       <c r="B585" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
-        <v>36717</v>
+        <v>36719</v>
       </c>
       <c r="B586" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>36717</v>
+        <v>36720</v>
       </c>
       <c r="B587" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>36717</v>
+        <v>36720</v>
       </c>
       <c r="B588" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>36718</v>
+        <v>36721</v>
       </c>
       <c r="B589" t="n">
         <v>14</v>
@@ -5155,7 +5155,7 @@
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>36718</v>
+        <v>36721</v>
       </c>
       <c r="B590" t="n">
         <v>13</v>
@@ -5163,15 +5163,15 @@
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>36718</v>
+        <v>36722</v>
       </c>
       <c r="B591" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>36719</v>
+        <v>36723</v>
       </c>
       <c r="B592" t="n">
         <v>15</v>
@@ -5179,7 +5179,7 @@
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>36719</v>
+        <v>36723</v>
       </c>
       <c r="B593" t="n">
         <v>14</v>
@@ -5187,7 +5187,7 @@
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>36720</v>
+        <v>36724</v>
       </c>
       <c r="B594" t="n">
         <v>14</v>
@@ -5195,7 +5195,7 @@
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
-        <v>36720</v>
+        <v>36724</v>
       </c>
       <c r="B595" t="n">
         <v>15</v>
@@ -5203,15 +5203,15 @@
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>36721</v>
+        <v>36724</v>
       </c>
       <c r="B596" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
-        <v>36721</v>
+        <v>36725</v>
       </c>
       <c r="B597" t="n">
         <v>13</v>
@@ -5219,135 +5219,135 @@
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
-        <v>36722</v>
+        <v>36725</v>
       </c>
       <c r="B598" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
-        <v>36723</v>
+        <v>36726</v>
       </c>
       <c r="B599" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
-        <v>36723</v>
+        <v>36726</v>
       </c>
       <c r="B600" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
-        <v>36724</v>
+        <v>36727</v>
       </c>
       <c r="B601" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
-        <v>36724</v>
+        <v>36728</v>
       </c>
       <c r="B602" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
-        <v>36724</v>
+        <v>36728</v>
       </c>
       <c r="B603" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
-        <v>36725</v>
+        <v>36728</v>
       </c>
       <c r="B604" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
-        <v>36725</v>
+        <v>36729</v>
       </c>
       <c r="B605" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
-        <v>36726</v>
+        <v>36730</v>
       </c>
       <c r="B606" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
-        <v>36726</v>
+        <v>36730</v>
       </c>
       <c r="B607" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
-        <v>36727</v>
+        <v>36730</v>
       </c>
       <c r="B608" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
-        <v>36728</v>
+        <v>36730</v>
       </c>
       <c r="B609" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
-        <v>36728</v>
+        <v>36730</v>
       </c>
       <c r="B610" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
-        <v>36728</v>
+        <v>36730</v>
       </c>
       <c r="B611" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
-        <v>36729</v>
+        <v>36731</v>
       </c>
       <c r="B612" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
-        <v>36730</v>
+        <v>36731</v>
       </c>
       <c r="B613" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
-        <v>36730</v>
+        <v>36732</v>
       </c>
       <c r="B614" t="n">
         <v>14</v>
@@ -5355,55 +5355,55 @@
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
-        <v>36730</v>
+        <v>36732</v>
       </c>
       <c r="B615" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
-        <v>36730</v>
+        <v>36732</v>
       </c>
       <c r="B616" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
-        <v>36730</v>
+        <v>36733</v>
       </c>
       <c r="B617" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
-        <v>36730</v>
+        <v>36733</v>
       </c>
       <c r="B618" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
-        <v>36731</v>
+        <v>36734</v>
       </c>
       <c r="B619" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
-        <v>36731</v>
+        <v>36734</v>
       </c>
       <c r="B620" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
-        <v>36732</v>
+        <v>36735</v>
       </c>
       <c r="B621" t="n">
         <v>14</v>
@@ -5411,7 +5411,7 @@
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
-        <v>36732</v>
+        <v>36735</v>
       </c>
       <c r="B622" t="n">
         <v>13</v>
@@ -5419,15 +5419,15 @@
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
-        <v>36732</v>
+        <v>36736</v>
       </c>
       <c r="B623" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
-        <v>36733</v>
+        <v>36736</v>
       </c>
       <c r="B624" t="n">
         <v>14</v>
@@ -5435,15 +5435,15 @@
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
-        <v>36733</v>
+        <v>36736</v>
       </c>
       <c r="B625" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
-        <v>36734</v>
+        <v>36737</v>
       </c>
       <c r="B626" t="n">
         <v>13</v>
@@ -5451,7 +5451,7 @@
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
-        <v>36734</v>
+        <v>36737</v>
       </c>
       <c r="B627" t="n">
         <v>14</v>
@@ -5459,23 +5459,23 @@
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
-        <v>36735</v>
+        <v>36738</v>
       </c>
       <c r="B628" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
-        <v>36735</v>
+        <v>36739</v>
       </c>
       <c r="B629" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
-        <v>36736</v>
+        <v>36739</v>
       </c>
       <c r="B630" t="n">
         <v>13</v>
@@ -5483,79 +5483,79 @@
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
-        <v>36736</v>
+        <v>36740</v>
       </c>
       <c r="B631" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
-        <v>36736</v>
+        <v>36740</v>
       </c>
       <c r="B632" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
-        <v>36737</v>
+        <v>36741</v>
       </c>
       <c r="B633" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
-        <v>36737</v>
+        <v>36741</v>
       </c>
       <c r="B634" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
-        <v>36738</v>
+        <v>36742</v>
       </c>
       <c r="B635" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
-        <v>36739</v>
+        <v>36742</v>
       </c>
       <c r="B636" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
-        <v>36739</v>
+        <v>36743</v>
       </c>
       <c r="B637" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="2" t="n">
-        <v>36740</v>
+        <v>36744</v>
       </c>
       <c r="B638" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="2" t="n">
-        <v>36740</v>
+        <v>36745</v>
       </c>
       <c r="B639" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="2" t="n">
-        <v>36741</v>
+        <v>36745</v>
       </c>
       <c r="B640" t="n">
         <v>14</v>
@@ -5563,23 +5563,23 @@
     </row>
     <row r="641">
       <c r="A641" s="2" t="n">
-        <v>36741</v>
+        <v>36746</v>
       </c>
       <c r="B641" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="2" t="n">
-        <v>36742</v>
+        <v>36746</v>
       </c>
       <c r="B642" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="2" t="n">
-        <v>36742</v>
+        <v>36746</v>
       </c>
       <c r="B643" t="n">
         <v>13</v>
@@ -5587,31 +5587,31 @@
     </row>
     <row r="644">
       <c r="A644" s="2" t="n">
-        <v>36743</v>
+        <v>36746</v>
       </c>
       <c r="B644" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="2" t="n">
-        <v>36744</v>
+        <v>36747</v>
       </c>
       <c r="B645" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="2" t="n">
-        <v>36745</v>
+        <v>36747</v>
       </c>
       <c r="B646" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="2" t="n">
-        <v>36745</v>
+        <v>36747</v>
       </c>
       <c r="B647" t="n">
         <v>14</v>
@@ -5619,231 +5619,231 @@
     </row>
     <row r="648">
       <c r="A648" s="2" t="n">
-        <v>36746</v>
+        <v>36747</v>
       </c>
       <c r="B648" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="2" t="n">
-        <v>36746</v>
+        <v>36747</v>
       </c>
       <c r="B649" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="2" t="n">
-        <v>36746</v>
+        <v>36748</v>
       </c>
       <c r="B650" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="2" t="n">
-        <v>36746</v>
+        <v>36748</v>
       </c>
       <c r="B651" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="2" t="n">
-        <v>36746</v>
+        <v>36749</v>
       </c>
       <c r="B652" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="2" t="n">
-        <v>36747</v>
+        <v>36749</v>
       </c>
       <c r="B653" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="2" t="n">
-        <v>36747</v>
+        <v>36750</v>
       </c>
       <c r="B654" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="2" t="n">
-        <v>36747</v>
+        <v>36751</v>
       </c>
       <c r="B655" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="2" t="n">
-        <v>36747</v>
+        <v>36751</v>
       </c>
       <c r="B656" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="2" t="n">
-        <v>36747</v>
+        <v>36751</v>
       </c>
       <c r="B657" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="2" t="n">
-        <v>36748</v>
+        <v>36751</v>
       </c>
       <c r="B658" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="2" t="n">
-        <v>36748</v>
+        <v>36752</v>
       </c>
       <c r="B659" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="2" t="n">
-        <v>36749</v>
+        <v>36752</v>
       </c>
       <c r="B660" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="2" t="n">
-        <v>36749</v>
+        <v>36752</v>
       </c>
       <c r="B661" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="2" t="n">
-        <v>36750</v>
+        <v>36752</v>
       </c>
       <c r="B662" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="2" t="n">
-        <v>36750</v>
+        <v>36752</v>
       </c>
       <c r="B663" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="2" t="n">
-        <v>36751</v>
+        <v>36752</v>
       </c>
       <c r="B664" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="2" t="n">
-        <v>36751</v>
+        <v>36753</v>
       </c>
       <c r="B665" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="2" t="n">
-        <v>36751</v>
+        <v>36753</v>
       </c>
       <c r="B666" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="2" t="n">
-        <v>36751</v>
+        <v>36753</v>
       </c>
       <c r="B667" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="2" t="n">
-        <v>36752</v>
+        <v>36753</v>
       </c>
       <c r="B668" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="2" t="n">
-        <v>36752</v>
+        <v>36753</v>
       </c>
       <c r="B669" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="2" t="n">
-        <v>36752</v>
+        <v>36754</v>
       </c>
       <c r="B670" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="2" t="n">
-        <v>36752</v>
+        <v>36754</v>
       </c>
       <c r="B671" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="2" t="n">
-        <v>36752</v>
+        <v>36755</v>
       </c>
       <c r="B672" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="2" t="n">
-        <v>36752</v>
+        <v>36755</v>
       </c>
       <c r="B673" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="2" t="n">
-        <v>36752</v>
+        <v>36756</v>
       </c>
       <c r="B674" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="2" t="n">
-        <v>36753</v>
+        <v>36756</v>
       </c>
       <c r="B675" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="2" t="n">
-        <v>36753</v>
+        <v>36757</v>
       </c>
       <c r="B676" t="n">
         <v>15</v>
@@ -5851,39 +5851,39 @@
     </row>
     <row r="677">
       <c r="A677" s="2" t="n">
-        <v>36753</v>
+        <v>36757</v>
       </c>
       <c r="B677" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="2" t="n">
-        <v>36753</v>
+        <v>36758</v>
       </c>
       <c r="B678" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="2" t="n">
-        <v>36753</v>
+        <v>36759</v>
       </c>
       <c r="B679" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="2" t="n">
-        <v>36754</v>
+        <v>36759</v>
       </c>
       <c r="B680" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="2" t="n">
-        <v>36754</v>
+        <v>36760</v>
       </c>
       <c r="B681" t="n">
         <v>13</v>
@@ -5891,7 +5891,7 @@
     </row>
     <row r="682">
       <c r="A682" s="2" t="n">
-        <v>36755</v>
+        <v>36760</v>
       </c>
       <c r="B682" t="n">
         <v>14</v>
@@ -5899,15 +5899,15 @@
     </row>
     <row r="683">
       <c r="A683" s="2" t="n">
-        <v>36755</v>
+        <v>36761</v>
       </c>
       <c r="B683" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="2" t="n">
-        <v>36756</v>
+        <v>36761</v>
       </c>
       <c r="B684" t="n">
         <v>15</v>
@@ -5915,39 +5915,39 @@
     </row>
     <row r="685">
       <c r="A685" s="2" t="n">
-        <v>36756</v>
+        <v>36762</v>
       </c>
       <c r="B685" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="2" t="n">
-        <v>36757</v>
+        <v>36762</v>
       </c>
       <c r="B686" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="2" t="n">
-        <v>36757</v>
+        <v>36762</v>
       </c>
       <c r="B687" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" s="2" t="n">
-        <v>36758</v>
+        <v>36762</v>
       </c>
       <c r="B688" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="2" t="n">
-        <v>36759</v>
+        <v>36763</v>
       </c>
       <c r="B689" t="n">
         <v>14</v>
@@ -5955,7 +5955,7 @@
     </row>
     <row r="690">
       <c r="A690" s="2" t="n">
-        <v>36759</v>
+        <v>36763</v>
       </c>
       <c r="B690" t="n">
         <v>13</v>
@@ -5963,71 +5963,71 @@
     </row>
     <row r="691">
       <c r="A691" s="2" t="n">
-        <v>36760</v>
+        <v>36763</v>
       </c>
       <c r="B691" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" s="2" t="n">
-        <v>36760</v>
+        <v>36764</v>
       </c>
       <c r="B692" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" s="2" t="n">
-        <v>36761</v>
+        <v>36764</v>
       </c>
       <c r="B693" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="2" t="n">
-        <v>36761</v>
+        <v>36765</v>
       </c>
       <c r="B694" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" s="2" t="n">
-        <v>36762</v>
+        <v>36765</v>
       </c>
       <c r="B695" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" s="2" t="n">
-        <v>36762</v>
+        <v>36765</v>
       </c>
       <c r="B696" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" s="2" t="n">
-        <v>36762</v>
+        <v>36765</v>
       </c>
       <c r="B697" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" s="2" t="n">
-        <v>36762</v>
+        <v>36765</v>
       </c>
       <c r="B698" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" s="2" t="n">
-        <v>36763</v>
+        <v>36766</v>
       </c>
       <c r="B699" t="n">
         <v>14</v>
@@ -6035,7 +6035,7 @@
     </row>
     <row r="700">
       <c r="A700" s="2" t="n">
-        <v>36763</v>
+        <v>36766</v>
       </c>
       <c r="B700" t="n">
         <v>13</v>
@@ -6043,23 +6043,23 @@
     </row>
     <row r="701">
       <c r="A701" s="2" t="n">
-        <v>36763</v>
+        <v>36767</v>
       </c>
       <c r="B701" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" s="2" t="n">
-        <v>36764</v>
+        <v>36767</v>
       </c>
       <c r="B702" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" s="2" t="n">
-        <v>36764</v>
+        <v>36767</v>
       </c>
       <c r="B703" t="n">
         <v>10</v>
@@ -6067,151 +6067,151 @@
     </row>
     <row r="704">
       <c r="A704" s="2" t="n">
-        <v>36765</v>
+        <v>36767</v>
       </c>
       <c r="B704" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" s="2" t="n">
-        <v>36765</v>
+        <v>36767</v>
       </c>
       <c r="B705" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" s="2" t="n">
-        <v>36765</v>
+        <v>36767</v>
       </c>
       <c r="B706" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" s="2" t="n">
-        <v>36765</v>
+        <v>36768</v>
       </c>
       <c r="B707" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" s="2" t="n">
-        <v>36766</v>
+        <v>36768</v>
       </c>
       <c r="B708" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" s="2" t="n">
-        <v>36766</v>
+        <v>36768</v>
       </c>
       <c r="B709" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" s="2" t="n">
-        <v>36767</v>
+        <v>36769</v>
       </c>
       <c r="B710" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" s="2" t="n">
-        <v>36767</v>
+        <v>36769</v>
       </c>
       <c r="B711" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" s="2" t="n">
-        <v>36767</v>
+        <v>36770</v>
       </c>
       <c r="B712" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" s="2" t="n">
-        <v>36767</v>
+        <v>36770</v>
       </c>
       <c r="B713" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" s="2" t="n">
-        <v>36767</v>
+        <v>36771</v>
       </c>
       <c r="B714" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" s="2" t="n">
-        <v>36768</v>
+        <v>36772</v>
       </c>
       <c r="B715" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" s="2" t="n">
-        <v>36768</v>
+        <v>36772</v>
       </c>
       <c r="B716" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" s="2" t="n">
-        <v>36769</v>
+        <v>36772</v>
       </c>
       <c r="B717" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" s="2" t="n">
-        <v>36769</v>
+        <v>36772</v>
       </c>
       <c r="B718" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" s="2" t="n">
-        <v>36770</v>
+        <v>36772</v>
       </c>
       <c r="B719" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" s="2" t="n">
-        <v>36770</v>
+        <v>36772</v>
       </c>
       <c r="B720" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" s="2" t="n">
-        <v>36771</v>
+        <v>36773</v>
       </c>
       <c r="B721" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" s="2" t="n">
-        <v>36772</v>
+        <v>36773</v>
       </c>
       <c r="B722" t="n">
         <v>13</v>
@@ -6219,31 +6219,31 @@
     </row>
     <row r="723">
       <c r="A723" s="2" t="n">
-        <v>36772</v>
+        <v>36774</v>
       </c>
       <c r="B723" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" s="2" t="n">
-        <v>36772</v>
+        <v>36774</v>
       </c>
       <c r="B724" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" s="2" t="n">
-        <v>36772</v>
+        <v>36774</v>
       </c>
       <c r="B725" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" s="2" t="n">
-        <v>36773</v>
+        <v>36775</v>
       </c>
       <c r="B726" t="n">
         <v>14</v>
@@ -6251,42 +6251,42 @@
     </row>
     <row r="727">
       <c r="A727" s="2" t="n">
-        <v>36773</v>
+        <v>36775</v>
       </c>
       <c r="B727" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" s="2" t="n">
-        <v>36773</v>
+        <v>36775</v>
       </c>
       <c r="B728" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" s="2" t="n">
-        <v>36774</v>
+        <v>36775</v>
       </c>
       <c r="B729" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" s="2" t="n">
-        <v>36774</v>
+        <v>36775</v>
       </c>
       <c r="B730" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" s="2" t="n">
-        <v>36774</v>
+        <v>36775</v>
       </c>
       <c r="B731" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="732">
@@ -6294,7 +6294,7 @@
         <v>36775</v>
       </c>
       <c r="B732" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="733">
@@ -6302,308 +6302,308 @@
         <v>36775</v>
       </c>
       <c r="B733" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" s="2" t="n">
-        <v>36775</v>
+        <v>36776</v>
       </c>
       <c r="B734" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" s="2" t="n">
-        <v>36775</v>
+        <v>36776</v>
       </c>
       <c r="B735" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" s="2" t="n">
-        <v>36775</v>
+        <v>36777</v>
       </c>
       <c r="B736" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" s="2" t="n">
-        <v>36775</v>
+        <v>36777</v>
       </c>
       <c r="B737" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" s="2" t="n">
-        <v>36775</v>
+        <v>36778</v>
       </c>
       <c r="B738" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" s="2" t="n">
-        <v>36776</v>
+        <v>36778</v>
       </c>
       <c r="B739" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" s="2" t="n">
-        <v>36776</v>
+        <v>36778</v>
       </c>
       <c r="B740" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" s="2" t="n">
-        <v>36777</v>
+        <v>36779</v>
       </c>
       <c r="B741" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" s="2" t="n">
-        <v>36777</v>
+        <v>36779</v>
       </c>
       <c r="B742" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" s="2" t="n">
-        <v>36778</v>
+        <v>36779</v>
       </c>
       <c r="B743" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" s="2" t="n">
-        <v>36778</v>
+        <v>36779</v>
       </c>
       <c r="B744" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" s="2" t="n">
-        <v>36778</v>
+        <v>36779</v>
       </c>
       <c r="B745" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" s="2" t="n">
-        <v>36779</v>
+        <v>36780</v>
       </c>
       <c r="B746" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" s="2" t="n">
-        <v>36779</v>
+        <v>36780</v>
       </c>
       <c r="B747" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" s="2" t="n">
-        <v>36779</v>
+        <v>36781</v>
       </c>
       <c r="B748" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" s="2" t="n">
-        <v>36779</v>
+        <v>36781</v>
       </c>
       <c r="B749" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" s="2" t="n">
-        <v>36779</v>
+        <v>36781</v>
       </c>
       <c r="B750" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" s="2" t="n">
-        <v>36780</v>
+        <v>36781</v>
       </c>
       <c r="B751" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" s="2" t="n">
-        <v>36780</v>
+        <v>36781</v>
       </c>
       <c r="B752" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" s="2" t="n">
-        <v>36781</v>
+        <v>36782</v>
       </c>
       <c r="B753" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" s="2" t="n">
-        <v>36781</v>
+        <v>36782</v>
       </c>
       <c r="B754" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" s="2" t="n">
-        <v>36781</v>
+        <v>36782</v>
       </c>
       <c r="B755" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" s="2" t="n">
-        <v>36781</v>
+        <v>36782</v>
       </c>
       <c r="B756" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" s="2" t="n">
-        <v>36781</v>
+        <v>36783</v>
       </c>
       <c r="B757" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" s="2" t="n">
-        <v>36782</v>
+        <v>36783</v>
       </c>
       <c r="B758" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" s="2" t="n">
-        <v>36782</v>
+        <v>36784</v>
       </c>
       <c r="B759" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" s="2" t="n">
-        <v>36782</v>
+        <v>36784</v>
       </c>
       <c r="B760" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" s="2" t="n">
-        <v>36782</v>
+        <v>36784</v>
       </c>
       <c r="B761" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" s="2" t="n">
-        <v>36782</v>
+        <v>36784</v>
       </c>
       <c r="B762" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" s="2" t="n">
-        <v>36783</v>
+        <v>36785</v>
       </c>
       <c r="B763" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" s="2" t="n">
-        <v>36783</v>
+        <v>36785</v>
       </c>
       <c r="B764" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" s="2" t="n">
-        <v>36784</v>
+        <v>36785</v>
       </c>
       <c r="B765" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" s="2" t="n">
-        <v>36784</v>
+        <v>36785</v>
       </c>
       <c r="B766" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" s="2" t="n">
-        <v>36784</v>
+        <v>36786</v>
       </c>
       <c r="B767" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" s="2" t="n">
-        <v>36784</v>
+        <v>36786</v>
       </c>
       <c r="B768" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" s="2" t="n">
-        <v>36785</v>
+        <v>36787</v>
       </c>
       <c r="B769" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" s="2" t="n">
-        <v>36785</v>
+        <v>36787</v>
       </c>
       <c r="B770" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" s="2" t="n">
-        <v>36785</v>
+        <v>36788</v>
       </c>
       <c r="B771" t="n">
         <v>14</v>
@@ -6611,15 +6611,15 @@
     </row>
     <row r="772">
       <c r="A772" s="2" t="n">
-        <v>36786</v>
+        <v>36788</v>
       </c>
       <c r="B772" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" s="2" t="n">
-        <v>36786</v>
+        <v>36789</v>
       </c>
       <c r="B773" t="n">
         <v>13</v>
@@ -6627,7 +6627,7 @@
     </row>
     <row r="774">
       <c r="A774" s="2" t="n">
-        <v>36787</v>
+        <v>36789</v>
       </c>
       <c r="B774" t="n">
         <v>14</v>
@@ -6635,23 +6635,23 @@
     </row>
     <row r="775">
       <c r="A775" s="2" t="n">
-        <v>36787</v>
+        <v>36790</v>
       </c>
       <c r="B775" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" s="2" t="n">
-        <v>36788</v>
+        <v>36790</v>
       </c>
       <c r="B776" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" s="2" t="n">
-        <v>36788</v>
+        <v>36791</v>
       </c>
       <c r="B777" t="n">
         <v>13</v>
@@ -6659,31 +6659,31 @@
     </row>
     <row r="778">
       <c r="A778" s="2" t="n">
-        <v>36789</v>
+        <v>36791</v>
       </c>
       <c r="B778" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" s="2" t="n">
-        <v>36789</v>
+        <v>36791</v>
       </c>
       <c r="B779" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" s="2" t="n">
-        <v>36790</v>
+        <v>36791</v>
       </c>
       <c r="B780" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" s="2" t="n">
-        <v>36790</v>
+        <v>36792</v>
       </c>
       <c r="B781" t="n">
         <v>13</v>
@@ -6691,23 +6691,23 @@
     </row>
     <row r="782">
       <c r="A782" s="2" t="n">
-        <v>36791</v>
+        <v>36792</v>
       </c>
       <c r="B782" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" s="2" t="n">
-        <v>36791</v>
+        <v>36792</v>
       </c>
       <c r="B783" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" s="2" t="n">
-        <v>36791</v>
+        <v>36792</v>
       </c>
       <c r="B784" t="n">
         <v>10</v>
@@ -6715,42 +6715,42 @@
     </row>
     <row r="785">
       <c r="A785" s="2" t="n">
-        <v>36791</v>
+        <v>36793</v>
       </c>
       <c r="B785" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" s="2" t="n">
-        <v>36792</v>
+        <v>36793</v>
       </c>
       <c r="B786" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" s="2" t="n">
-        <v>36792</v>
+        <v>36793</v>
       </c>
       <c r="B787" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" s="2" t="n">
-        <v>36792</v>
+        <v>36793</v>
       </c>
       <c r="B788" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" s="2" t="n">
-        <v>36792</v>
+        <v>36793</v>
       </c>
       <c r="B789" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="790">
@@ -6758,100 +6758,100 @@
         <v>36793</v>
       </c>
       <c r="B790" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" s="2" t="n">
-        <v>36793</v>
+        <v>36794</v>
       </c>
       <c r="B791" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" s="2" t="n">
-        <v>36793</v>
+        <v>36794</v>
       </c>
       <c r="B792" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" s="2" t="n">
-        <v>36793</v>
+        <v>36795</v>
       </c>
       <c r="B793" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" s="2" t="n">
-        <v>36793</v>
+        <v>36795</v>
       </c>
       <c r="B794" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" s="2" t="n">
-        <v>36793</v>
+        <v>36796</v>
       </c>
       <c r="B795" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" s="2" t="n">
-        <v>36794</v>
+        <v>36796</v>
       </c>
       <c r="B796" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" s="2" t="n">
-        <v>36794</v>
+        <v>36797</v>
       </c>
       <c r="B797" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" s="2" t="n">
-        <v>36795</v>
+        <v>36797</v>
       </c>
       <c r="B798" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" s="2" t="n">
-        <v>36795</v>
+        <v>36797</v>
       </c>
       <c r="B799" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" s="2" t="n">
-        <v>36796</v>
+        <v>36797</v>
       </c>
       <c r="B800" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" s="2" t="n">
-        <v>36796</v>
+        <v>36798</v>
       </c>
       <c r="B801" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" s="2" t="n">
-        <v>36797</v>
+        <v>36798</v>
       </c>
       <c r="B802" t="n">
         <v>14</v>
@@ -6859,23 +6859,23 @@
     </row>
     <row r="803">
       <c r="A803" s="2" t="n">
-        <v>36797</v>
+        <v>36799</v>
       </c>
       <c r="B803" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" s="2" t="n">
-        <v>36797</v>
+        <v>36799</v>
       </c>
       <c r="B804" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" s="2" t="n">
-        <v>36798</v>
+        <v>36800</v>
       </c>
       <c r="B805" t="n">
         <v>13</v>
@@ -6883,7 +6883,7 @@
     </row>
     <row r="806">
       <c r="A806" s="2" t="n">
-        <v>36798</v>
+        <v>36800</v>
       </c>
       <c r="B806" t="n">
         <v>14</v>
@@ -6891,31 +6891,31 @@
     </row>
     <row r="807">
       <c r="A807" s="2" t="n">
-        <v>36799</v>
+        <v>36800</v>
       </c>
       <c r="B807" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" s="2" t="n">
-        <v>36799</v>
+        <v>36800</v>
       </c>
       <c r="B808" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" s="2" t="n">
-        <v>36800</v>
+        <v>36801</v>
       </c>
       <c r="B809" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" s="2" t="n">
-        <v>36800</v>
+        <v>36801</v>
       </c>
       <c r="B810" t="n">
         <v>14</v>
@@ -6923,127 +6923,127 @@
     </row>
     <row r="811">
       <c r="A811" s="2" t="n">
-        <v>36800</v>
+        <v>36801</v>
       </c>
       <c r="B811" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" s="2" t="n">
-        <v>36800</v>
+        <v>36802</v>
       </c>
       <c r="B812" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" s="2" t="n">
-        <v>36800</v>
+        <v>36802</v>
       </c>
       <c r="B813" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" s="2" t="n">
-        <v>36801</v>
+        <v>36802</v>
       </c>
       <c r="B814" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" s="2" t="n">
-        <v>36801</v>
+        <v>36802</v>
       </c>
       <c r="B815" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" s="2" t="n">
-        <v>36801</v>
+        <v>36803</v>
       </c>
       <c r="B816" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" s="2" t="n">
-        <v>36802</v>
+        <v>36803</v>
       </c>
       <c r="B817" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="818">
       <c r="A818" s="2" t="n">
-        <v>36802</v>
+        <v>36803</v>
       </c>
       <c r="B818" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="819">
       <c r="A819" s="2" t="n">
-        <v>36802</v>
+        <v>36804</v>
       </c>
       <c r="B819" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="820">
       <c r="A820" s="2" t="n">
-        <v>36802</v>
+        <v>36804</v>
       </c>
       <c r="B820" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="821">
       <c r="A821" s="2" t="n">
-        <v>36803</v>
+        <v>36805</v>
       </c>
       <c r="B821" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" s="2" t="n">
-        <v>36803</v>
+        <v>36805</v>
       </c>
       <c r="B822" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="823">
       <c r="A823" s="2" t="n">
-        <v>36804</v>
+        <v>36806</v>
       </c>
       <c r="B823" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="824">
       <c r="A824" s="2" t="n">
-        <v>36804</v>
+        <v>36806</v>
       </c>
       <c r="B824" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="825">
       <c r="A825" s="2" t="n">
-        <v>36805</v>
+        <v>36807</v>
       </c>
       <c r="B825" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="826">
       <c r="A826" s="2" t="n">
-        <v>36805</v>
+        <v>36807</v>
       </c>
       <c r="B826" t="n">
         <v>13</v>
@@ -7051,7 +7051,7 @@
     </row>
     <row r="827">
       <c r="A827" s="2" t="n">
-        <v>36806</v>
+        <v>36808</v>
       </c>
       <c r="B827" t="n">
         <v>13</v>
@@ -7059,15 +7059,15 @@
     </row>
     <row r="828">
       <c r="A828" s="2" t="n">
-        <v>36806</v>
+        <v>36808</v>
       </c>
       <c r="B828" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="829">
       <c r="A829" s="2" t="n">
-        <v>36807</v>
+        <v>36808</v>
       </c>
       <c r="B829" t="n">
         <v>12</v>
@@ -7075,7 +7075,7 @@
     </row>
     <row r="830">
       <c r="A830" s="2" t="n">
-        <v>36807</v>
+        <v>36809</v>
       </c>
       <c r="B830" t="n">
         <v>13</v>
@@ -7083,63 +7083,63 @@
     </row>
     <row r="831">
       <c r="A831" s="2" t="n">
-        <v>36808</v>
+        <v>36809</v>
       </c>
       <c r="B831" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="832">
       <c r="A832" s="2" t="n">
-        <v>36808</v>
+        <v>36810</v>
       </c>
       <c r="B832" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="833">
       <c r="A833" s="2" t="n">
-        <v>36808</v>
+        <v>36810</v>
       </c>
       <c r="B833" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="834">
       <c r="A834" s="2" t="n">
-        <v>36809</v>
+        <v>36811</v>
       </c>
       <c r="B834" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="835">
       <c r="A835" s="2" t="n">
-        <v>36809</v>
+        <v>36811</v>
       </c>
       <c r="B835" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="836">
       <c r="A836" s="2" t="n">
-        <v>36810</v>
+        <v>36812</v>
       </c>
       <c r="B836" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="837">
       <c r="A837" s="2" t="n">
-        <v>36810</v>
+        <v>36812</v>
       </c>
       <c r="B837" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="838">
       <c r="A838" s="2" t="n">
-        <v>36811</v>
+        <v>36813</v>
       </c>
       <c r="B838" t="n">
         <v>14</v>
@@ -7147,39 +7147,39 @@
     </row>
     <row r="839">
       <c r="A839" s="2" t="n">
-        <v>36811</v>
+        <v>36813</v>
       </c>
       <c r="B839" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="840">
       <c r="A840" s="2" t="n">
-        <v>36812</v>
+        <v>36813</v>
       </c>
       <c r="B840" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="841">
       <c r="A841" s="2" t="n">
-        <v>36812</v>
+        <v>36814</v>
       </c>
       <c r="B841" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="842">
       <c r="A842" s="2" t="n">
-        <v>36813</v>
+        <v>36814</v>
       </c>
       <c r="B842" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="843">
       <c r="A843" s="2" t="n">
-        <v>36813</v>
+        <v>36814</v>
       </c>
       <c r="B843" t="n">
         <v>15</v>
@@ -7187,47 +7187,47 @@
     </row>
     <row r="844">
       <c r="A844" s="2" t="n">
-        <v>36813</v>
+        <v>36814</v>
       </c>
       <c r="B844" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="845">
       <c r="A845" s="2" t="n">
-        <v>36814</v>
+        <v>36815</v>
       </c>
       <c r="B845" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="846">
       <c r="A846" s="2" t="n">
-        <v>36814</v>
+        <v>36815</v>
       </c>
       <c r="B846" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="847">
       <c r="A847" s="2" t="n">
-        <v>36814</v>
+        <v>36815</v>
       </c>
       <c r="B847" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" s="2" t="n">
-        <v>36814</v>
+        <v>36816</v>
       </c>
       <c r="B848" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="849">
       <c r="A849" s="2" t="n">
-        <v>36814</v>
+        <v>36816</v>
       </c>
       <c r="B849" t="n">
         <v>12</v>
@@ -7235,63 +7235,63 @@
     </row>
     <row r="850">
       <c r="A850" s="2" t="n">
-        <v>36815</v>
+        <v>36816</v>
       </c>
       <c r="B850" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="851">
       <c r="A851" s="2" t="n">
-        <v>36815</v>
+        <v>36817</v>
       </c>
       <c r="B851" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="852">
       <c r="A852" s="2" t="n">
-        <v>36815</v>
+        <v>36817</v>
       </c>
       <c r="B852" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="853">
       <c r="A853" s="2" t="n">
-        <v>36816</v>
+        <v>36818</v>
       </c>
       <c r="B853" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="854">
       <c r="A854" s="2" t="n">
-        <v>36816</v>
+        <v>36818</v>
       </c>
       <c r="B854" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="855">
       <c r="A855" s="2" t="n">
-        <v>36817</v>
+        <v>36819</v>
       </c>
       <c r="B855" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="856">
       <c r="A856" s="2" t="n">
-        <v>36817</v>
+        <v>36819</v>
       </c>
       <c r="B856" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="857">
       <c r="A857" s="2" t="n">
-        <v>36817</v>
+        <v>36820</v>
       </c>
       <c r="B857" t="n">
         <v>12</v>
@@ -7299,7 +7299,7 @@
     </row>
     <row r="858">
       <c r="A858" s="2" t="n">
-        <v>36818</v>
+        <v>36820</v>
       </c>
       <c r="B858" t="n">
         <v>14</v>
@@ -7307,15 +7307,15 @@
     </row>
     <row r="859">
       <c r="A859" s="2" t="n">
-        <v>36818</v>
+        <v>36821</v>
       </c>
       <c r="B859" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="860">
       <c r="A860" s="2" t="n">
-        <v>36818</v>
+        <v>36821</v>
       </c>
       <c r="B860" t="n">
         <v>15</v>
@@ -7323,111 +7323,111 @@
     </row>
     <row r="861">
       <c r="A861" s="2" t="n">
-        <v>36818</v>
+        <v>36821</v>
       </c>
       <c r="B861" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="862">
       <c r="A862" s="2" t="n">
-        <v>36819</v>
+        <v>36821</v>
       </c>
       <c r="B862" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="863">
       <c r="A863" s="2" t="n">
-        <v>36819</v>
+        <v>36821</v>
       </c>
       <c r="B863" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="864">
       <c r="A864" s="2" t="n">
-        <v>36819</v>
+        <v>36822</v>
       </c>
       <c r="B864" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="865">
       <c r="A865" s="2" t="n">
-        <v>36820</v>
+        <v>36822</v>
       </c>
       <c r="B865" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="866">
       <c r="A866" s="2" t="n">
-        <v>36820</v>
+        <v>36822</v>
       </c>
       <c r="B866" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="867">
       <c r="A867" s="2" t="n">
-        <v>36821</v>
+        <v>36822</v>
       </c>
       <c r="B867" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="868">
       <c r="A868" s="2" t="n">
-        <v>36821</v>
+        <v>36823</v>
       </c>
       <c r="B868" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="869">
       <c r="A869" s="2" t="n">
-        <v>36821</v>
+        <v>36823</v>
       </c>
       <c r="B869" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="870">
       <c r="A870" s="2" t="n">
-        <v>36821</v>
+        <v>36823</v>
       </c>
       <c r="B870" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="871">
       <c r="A871" s="2" t="n">
-        <v>36821</v>
+        <v>36824</v>
       </c>
       <c r="B871" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="872">
       <c r="A872" s="2" t="n">
-        <v>36822</v>
+        <v>36824</v>
       </c>
       <c r="B872" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="873">
       <c r="A873" s="2" t="n">
-        <v>36822</v>
+        <v>36824</v>
       </c>
       <c r="B873" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="874">
       <c r="A874" s="2" t="n">
-        <v>36822</v>
+        <v>36824</v>
       </c>
       <c r="B874" t="n">
         <v>12</v>
@@ -7435,31 +7435,31 @@
     </row>
     <row r="875">
       <c r="A875" s="2" t="n">
-        <v>36822</v>
+        <v>36824</v>
       </c>
       <c r="B875" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="876">
       <c r="A876" s="2" t="n">
-        <v>36823</v>
+        <v>36825</v>
       </c>
       <c r="B876" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="877">
       <c r="A877" s="2" t="n">
-        <v>36823</v>
+        <v>36826</v>
       </c>
       <c r="B877" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="878">
       <c r="A878" s="2" t="n">
-        <v>36824</v>
+        <v>36826</v>
       </c>
       <c r="B878" t="n">
         <v>14</v>
@@ -7467,311 +7467,311 @@
     </row>
     <row r="879">
       <c r="A879" s="2" t="n">
-        <v>36824</v>
+        <v>36826</v>
       </c>
       <c r="B879" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="880">
       <c r="A880" s="2" t="n">
-        <v>36824</v>
+        <v>36826</v>
       </c>
       <c r="B880" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="881">
       <c r="A881" s="2" t="n">
-        <v>36824</v>
+        <v>36826</v>
       </c>
       <c r="B881" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="882">
       <c r="A882" s="2" t="n">
-        <v>36824</v>
+        <v>36827</v>
       </c>
       <c r="B882" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="883">
       <c r="A883" s="2" t="n">
-        <v>36825</v>
+        <v>36827</v>
       </c>
       <c r="B883" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="884">
       <c r="A884" s="2" t="n">
-        <v>36826</v>
+        <v>36827</v>
       </c>
       <c r="B884" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="885">
       <c r="A885" s="2" t="n">
-        <v>36826</v>
+        <v>36827</v>
       </c>
       <c r="B885" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="886">
       <c r="A886" s="2" t="n">
-        <v>36826</v>
+        <v>36829</v>
       </c>
       <c r="B886" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="887">
       <c r="A887" s="2" t="n">
-        <v>36826</v>
+        <v>36829</v>
       </c>
       <c r="B887" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="888">
       <c r="A888" s="2" t="n">
-        <v>36826</v>
+        <v>36829</v>
       </c>
       <c r="B888" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="889">
       <c r="A889" s="2" t="n">
-        <v>36827</v>
+        <v>36829</v>
       </c>
       <c r="B889" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="890">
       <c r="A890" s="2" t="n">
-        <v>36827</v>
+        <v>36829</v>
       </c>
       <c r="B890" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="891">
       <c r="A891" s="2" t="n">
-        <v>36827</v>
+        <v>36829</v>
       </c>
       <c r="B891" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="892">
       <c r="A892" s="2" t="n">
-        <v>36827</v>
+        <v>36830</v>
       </c>
       <c r="B892" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="893">
       <c r="A893" s="2" t="n">
-        <v>36829</v>
+        <v>36830</v>
       </c>
       <c r="B893" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="894">
       <c r="A894" s="2" t="n">
-        <v>36829</v>
+        <v>36830</v>
       </c>
       <c r="B894" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="895">
       <c r="A895" s="2" t="n">
-        <v>36829</v>
+        <v>36830</v>
       </c>
       <c r="B895" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896">
       <c r="A896" s="2" t="n">
-        <v>36829</v>
+        <v>36831</v>
       </c>
       <c r="B896" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="897">
       <c r="A897" s="2" t="n">
-        <v>36829</v>
+        <v>36831</v>
       </c>
       <c r="B897" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="898">
       <c r="A898" s="2" t="n">
-        <v>36829</v>
+        <v>36831</v>
       </c>
       <c r="B898" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="899">
       <c r="A899" s="2" t="n">
-        <v>36830</v>
+        <v>36831</v>
       </c>
       <c r="B899" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="900">
       <c r="A900" s="2" t="n">
-        <v>36830</v>
+        <v>36831</v>
       </c>
       <c r="B900" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="901">
       <c r="A901" s="2" t="n">
-        <v>36830</v>
+        <v>36831</v>
       </c>
       <c r="B901" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="902">
       <c r="A902" s="2" t="n">
-        <v>36830</v>
+        <v>36832</v>
       </c>
       <c r="B902" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="903">
       <c r="A903" s="2" t="n">
-        <v>36831</v>
+        <v>36832</v>
       </c>
       <c r="B903" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="904">
       <c r="A904" s="2" t="n">
-        <v>36831</v>
+        <v>36832</v>
       </c>
       <c r="B904" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="905">
       <c r="A905" s="2" t="n">
-        <v>36831</v>
+        <v>36832</v>
       </c>
       <c r="B905" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="906">
       <c r="A906" s="2" t="n">
-        <v>36831</v>
+        <v>36832</v>
       </c>
       <c r="B906" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="907">
       <c r="A907" s="2" t="n">
-        <v>36831</v>
+        <v>36833</v>
       </c>
       <c r="B907" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="908">
       <c r="A908" s="2" t="n">
-        <v>36831</v>
+        <v>36833</v>
       </c>
       <c r="B908" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="909">
       <c r="A909" s="2" t="n">
-        <v>36832</v>
+        <v>36833</v>
       </c>
       <c r="B909" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="910">
       <c r="A910" s="2" t="n">
-        <v>36832</v>
+        <v>36834</v>
       </c>
       <c r="B910" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="911">
       <c r="A911" s="2" t="n">
-        <v>36832</v>
+        <v>36834</v>
       </c>
       <c r="B911" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="912">
       <c r="A912" s="2" t="n">
-        <v>36832</v>
+        <v>36835</v>
       </c>
       <c r="B912" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="913">
       <c r="A913" s="2" t="n">
-        <v>36832</v>
+        <v>36835</v>
       </c>
       <c r="B913" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="914">
       <c r="A914" s="2" t="n">
-        <v>36833</v>
+        <v>36835</v>
       </c>
       <c r="B914" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="915">
       <c r="A915" s="2" t="n">
-        <v>36833</v>
+        <v>36835</v>
       </c>
       <c r="B915" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="916">
       <c r="A916" s="2" t="n">
-        <v>36833</v>
+        <v>36835</v>
       </c>
       <c r="B916" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="917">
       <c r="A917" s="2" t="n">
-        <v>36834</v>
+        <v>36836</v>
       </c>
       <c r="B917" t="n">
         <v>12</v>
@@ -7779,50 +7779,50 @@
     </row>
     <row r="918">
       <c r="A918" s="2" t="n">
-        <v>36834</v>
+        <v>36836</v>
       </c>
       <c r="B918" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="919">
       <c r="A919" s="2" t="n">
-        <v>36835</v>
+        <v>36836</v>
       </c>
       <c r="B919" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="920">
       <c r="A920" s="2" t="n">
-        <v>36835</v>
+        <v>36836</v>
       </c>
       <c r="B920" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="921">
       <c r="A921" s="2" t="n">
-        <v>36835</v>
+        <v>36836</v>
       </c>
       <c r="B921" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="922">
       <c r="A922" s="2" t="n">
-        <v>36835</v>
+        <v>36836</v>
       </c>
       <c r="B922" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="923">
       <c r="A923" s="2" t="n">
-        <v>36835</v>
+        <v>36836</v>
       </c>
       <c r="B923" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="924">
@@ -7830,140 +7830,140 @@
         <v>36836</v>
       </c>
       <c r="B924" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="925">
       <c r="A925" s="2" t="n">
-        <v>36836</v>
+        <v>36837</v>
       </c>
       <c r="B925" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="926">
       <c r="A926" s="2" t="n">
-        <v>36836</v>
+        <v>36837</v>
       </c>
       <c r="B926" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="927">
       <c r="A927" s="2" t="n">
-        <v>36836</v>
+        <v>36838</v>
       </c>
       <c r="B927" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="928">
       <c r="A928" s="2" t="n">
-        <v>36836</v>
+        <v>36838</v>
       </c>
       <c r="B928" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="929">
       <c r="A929" s="2" t="n">
-        <v>36836</v>
+        <v>36838</v>
       </c>
       <c r="B929" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="930">
       <c r="A930" s="2" t="n">
-        <v>36836</v>
+        <v>36839</v>
       </c>
       <c r="B930" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="931">
       <c r="A931" s="2" t="n">
-        <v>36836</v>
+        <v>36839</v>
       </c>
       <c r="B931" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="932">
       <c r="A932" s="2" t="n">
-        <v>36837</v>
+        <v>36839</v>
       </c>
       <c r="B932" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="933">
       <c r="A933" s="2" t="n">
-        <v>36837</v>
+        <v>36839</v>
       </c>
       <c r="B933" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="934">
       <c r="A934" s="2" t="n">
-        <v>36838</v>
+        <v>36840</v>
       </c>
       <c r="B934" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" s="2" t="n">
-        <v>36838</v>
+        <v>36841</v>
       </c>
       <c r="B935" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="936">
       <c r="A936" s="2" t="n">
-        <v>36838</v>
+        <v>36841</v>
       </c>
       <c r="B936" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="937">
       <c r="A937" s="2" t="n">
-        <v>36839</v>
+        <v>36841</v>
       </c>
       <c r="B937" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="938">
       <c r="A938" s="2" t="n">
-        <v>36839</v>
+        <v>36843</v>
       </c>
       <c r="B938" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="939">
       <c r="A939" s="2" t="n">
-        <v>36839</v>
+        <v>36843</v>
       </c>
       <c r="B939" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="940">
       <c r="A940" s="2" t="n">
-        <v>36839</v>
+        <v>36843</v>
       </c>
       <c r="B940" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="941">
       <c r="A941" s="2" t="n">
-        <v>36840</v>
+        <v>36843</v>
       </c>
       <c r="B941" t="n">
         <v>15</v>
@@ -7971,63 +7971,63 @@
     </row>
     <row r="942">
       <c r="A942" s="2" t="n">
-        <v>36841</v>
+        <v>36843</v>
       </c>
       <c r="B942" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="943">
       <c r="A943" s="2" t="n">
-        <v>36841</v>
+        <v>36843</v>
       </c>
       <c r="B943" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="944">
       <c r="A944" s="2" t="n">
-        <v>36841</v>
+        <v>36843</v>
       </c>
       <c r="B944" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="945">
       <c r="A945" s="2" t="n">
-        <v>36843</v>
+        <v>36844</v>
       </c>
       <c r="B945" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="946">
       <c r="A946" s="2" t="n">
-        <v>36843</v>
+        <v>36844</v>
       </c>
       <c r="B946" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="947">
       <c r="A947" s="2" t="n">
-        <v>36843</v>
+        <v>36844</v>
       </c>
       <c r="B947" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="948">
       <c r="A948" s="2" t="n">
-        <v>36843</v>
+        <v>36844</v>
       </c>
       <c r="B948" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="949">
       <c r="A949" s="2" t="n">
-        <v>36843</v>
+        <v>36845</v>
       </c>
       <c r="B949" t="n">
         <v>13</v>
@@ -8035,183 +8035,183 @@
     </row>
     <row r="950">
       <c r="A950" s="2" t="n">
-        <v>36843</v>
+        <v>36845</v>
       </c>
       <c r="B950" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="951">
       <c r="A951" s="2" t="n">
-        <v>36843</v>
+        <v>36845</v>
       </c>
       <c r="B951" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="952">
       <c r="A952" s="2" t="n">
-        <v>36844</v>
+        <v>36846</v>
       </c>
       <c r="B952" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="953">
       <c r="A953" s="2" t="n">
-        <v>36844</v>
+        <v>36846</v>
       </c>
       <c r="B953" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="954">
       <c r="A954" s="2" t="n">
-        <v>36844</v>
+        <v>36846</v>
       </c>
       <c r="B954" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="955">
       <c r="A955" s="2" t="n">
-        <v>36844</v>
+        <v>36847</v>
       </c>
       <c r="B955" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="956">
       <c r="A956" s="2" t="n">
-        <v>36845</v>
+        <v>36847</v>
       </c>
       <c r="B956" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="957">
       <c r="A957" s="2" t="n">
-        <v>36845</v>
+        <v>36847</v>
       </c>
       <c r="B957" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="958">
       <c r="A958" s="2" t="n">
-        <v>36845</v>
+        <v>36847</v>
       </c>
       <c r="B958" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="959">
       <c r="A959" s="2" t="n">
-        <v>36846</v>
+        <v>36847</v>
       </c>
       <c r="B959" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="960">
       <c r="A960" s="2" t="n">
-        <v>36846</v>
+        <v>36848</v>
       </c>
       <c r="B960" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="961">
       <c r="A961" s="2" t="n">
-        <v>36846</v>
+        <v>36848</v>
       </c>
       <c r="B961" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="962">
       <c r="A962" s="2" t="n">
-        <v>36847</v>
+        <v>36848</v>
       </c>
       <c r="B962" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="963">
       <c r="A963" s="2" t="n">
-        <v>36847</v>
+        <v>36849</v>
       </c>
       <c r="B963" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="964">
       <c r="A964" s="2" t="n">
-        <v>36847</v>
+        <v>36849</v>
       </c>
       <c r="B964" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="965">
       <c r="A965" s="2" t="n">
-        <v>36847</v>
+        <v>36849</v>
       </c>
       <c r="B965" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="966">
       <c r="A966" s="2" t="n">
-        <v>36847</v>
+        <v>36849</v>
       </c>
       <c r="B966" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="967">
       <c r="A967" s="2" t="n">
-        <v>36848</v>
+        <v>36849</v>
       </c>
       <c r="B967" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="968">
       <c r="A968" s="2" t="n">
-        <v>36848</v>
+        <v>36849</v>
       </c>
       <c r="B968" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="969">
       <c r="A969" s="2" t="n">
-        <v>36848</v>
+        <v>36850</v>
       </c>
       <c r="B969" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="970">
       <c r="A970" s="2" t="n">
-        <v>36849</v>
+        <v>36850</v>
       </c>
       <c r="B970" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="971">
       <c r="A971" s="2" t="n">
-        <v>36849</v>
+        <v>36850</v>
       </c>
       <c r="B971" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="972">
       <c r="A972" s="2" t="n">
-        <v>36849</v>
+        <v>36850</v>
       </c>
       <c r="B972" t="n">
         <v>19</v>
@@ -8219,79 +8219,79 @@
     </row>
     <row r="973">
       <c r="A973" s="2" t="n">
-        <v>36849</v>
+        <v>36850</v>
       </c>
       <c r="B973" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="974">
       <c r="A974" s="2" t="n">
-        <v>36849</v>
+        <v>36850</v>
       </c>
       <c r="B974" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="975">
       <c r="A975" s="2" t="n">
-        <v>36849</v>
+        <v>36851</v>
       </c>
       <c r="B975" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="976">
       <c r="A976" s="2" t="n">
-        <v>36850</v>
+        <v>36851</v>
       </c>
       <c r="B976" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="977">
       <c r="A977" s="2" t="n">
-        <v>36850</v>
+        <v>36852</v>
       </c>
       <c r="B977" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="978">
       <c r="A978" s="2" t="n">
-        <v>36850</v>
+        <v>36852</v>
       </c>
       <c r="B978" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="979">
       <c r="A979" s="2" t="n">
-        <v>36850</v>
+        <v>36852</v>
       </c>
       <c r="B979" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="980">
       <c r="A980" s="2" t="n">
-        <v>36850</v>
+        <v>36853</v>
       </c>
       <c r="B980" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="981">
       <c r="A981" s="2" t="n">
-        <v>36850</v>
+        <v>36853</v>
       </c>
       <c r="B981" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="982">
       <c r="A982" s="2" t="n">
-        <v>36851</v>
+        <v>36853</v>
       </c>
       <c r="B982" t="n">
         <v>12</v>
@@ -8299,71 +8299,71 @@
     </row>
     <row r="983">
       <c r="A983" s="2" t="n">
-        <v>36851</v>
+        <v>36853</v>
       </c>
       <c r="B983" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="984">
       <c r="A984" s="2" t="n">
-        <v>36852</v>
+        <v>36857</v>
       </c>
       <c r="B984" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="985">
       <c r="A985" s="2" t="n">
-        <v>36852</v>
+        <v>36859</v>
       </c>
       <c r="B985" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="986">
       <c r="A986" s="2" t="n">
-        <v>36852</v>
+        <v>36860</v>
       </c>
       <c r="B986" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="987">
       <c r="A987" s="2" t="n">
-        <v>36853</v>
+        <v>36860</v>
       </c>
       <c r="B987" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="988">
       <c r="A988" s="2" t="n">
-        <v>36853</v>
+        <v>36860</v>
       </c>
       <c r="B988" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="989">
       <c r="A989" s="2" t="n">
-        <v>36853</v>
+        <v>36861</v>
       </c>
       <c r="B989" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="990">
       <c r="A990" s="2" t="n">
-        <v>36853</v>
+        <v>36861</v>
       </c>
       <c r="B990" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="991">
       <c r="A991" s="2" t="n">
-        <v>36857</v>
+        <v>36861</v>
       </c>
       <c r="B991" t="n">
         <v>10</v>
@@ -8371,39 +8371,39 @@
     </row>
     <row r="992">
       <c r="A992" s="2" t="n">
-        <v>36859</v>
+        <v>36862</v>
       </c>
       <c r="B992" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="993">
       <c r="A993" s="2" t="n">
-        <v>36860</v>
+        <v>36862</v>
       </c>
       <c r="B993" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="994">
       <c r="A994" s="2" t="n">
-        <v>36860</v>
+        <v>36862</v>
       </c>
       <c r="B994" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="995">
       <c r="A995" s="2" t="n">
-        <v>36860</v>
+        <v>36863</v>
       </c>
       <c r="B995" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="996">
       <c r="A996" s="2" t="n">
-        <v>36861</v>
+        <v>36863</v>
       </c>
       <c r="B996" t="n">
         <v>11</v>
@@ -8411,15 +8411,15 @@
     </row>
     <row r="997">
       <c r="A997" s="2" t="n">
-        <v>36861</v>
+        <v>36863</v>
       </c>
       <c r="B997" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="998">
       <c r="A998" s="2" t="n">
-        <v>36861</v>
+        <v>36863</v>
       </c>
       <c r="B998" t="n">
         <v>10</v>
@@ -8427,39 +8427,39 @@
     </row>
     <row r="999">
       <c r="A999" s="2" t="n">
-        <v>36862</v>
+        <v>36863</v>
       </c>
       <c r="B999" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" s="2" t="n">
-        <v>36862</v>
+        <v>36863</v>
       </c>
       <c r="B1000" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1001">
       <c r="A1001" s="2" t="n">
-        <v>36862</v>
+        <v>36863</v>
       </c>
       <c r="B1001" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1002">
       <c r="A1002" s="2" t="n">
-        <v>36863</v>
+        <v>36864</v>
       </c>
       <c r="B1002" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1003">
       <c r="A1003" s="2" t="n">
-        <v>36863</v>
+        <v>36864</v>
       </c>
       <c r="B1003" t="n">
         <v>11</v>
@@ -8467,15 +8467,15 @@
     </row>
     <row r="1004">
       <c r="A1004" s="2" t="n">
-        <v>36863</v>
+        <v>36864</v>
       </c>
       <c r="B1004" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1005">
       <c r="A1005" s="2" t="n">
-        <v>36863</v>
+        <v>36864</v>
       </c>
       <c r="B1005" t="n">
         <v>10</v>
@@ -8483,111 +8483,111 @@
     </row>
     <row r="1006">
       <c r="A1006" s="2" t="n">
-        <v>36863</v>
+        <v>36865</v>
       </c>
       <c r="B1006" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1007">
       <c r="A1007" s="2" t="n">
-        <v>36863</v>
+        <v>36865</v>
       </c>
       <c r="B1007" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1008">
       <c r="A1008" s="2" t="n">
-        <v>36863</v>
+        <v>36866</v>
       </c>
       <c r="B1008" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1009">
       <c r="A1009" s="2" t="n">
-        <v>36864</v>
+        <v>36867</v>
       </c>
       <c r="B1009" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1010">
       <c r="A1010" s="2" t="n">
-        <v>36864</v>
+        <v>36868</v>
       </c>
       <c r="B1010" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1011">
       <c r="A1011" s="2" t="n">
-        <v>36864</v>
+        <v>36869</v>
       </c>
       <c r="B1011" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1012">
       <c r="A1012" s="2" t="n">
-        <v>36864</v>
+        <v>36870</v>
       </c>
       <c r="B1012" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1013">
       <c r="A1013" s="2" t="n">
-        <v>36865</v>
+        <v>36870</v>
       </c>
       <c r="B1013" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1014">
       <c r="A1014" s="2" t="n">
-        <v>36865</v>
+        <v>36870</v>
       </c>
       <c r="B1014" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1015">
       <c r="A1015" s="2" t="n">
-        <v>36866</v>
+        <v>36870</v>
       </c>
       <c r="B1015" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1016">
       <c r="A1016" s="2" t="n">
-        <v>36867</v>
+        <v>36870</v>
       </c>
       <c r="B1016" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1017">
       <c r="A1017" s="2" t="n">
-        <v>36868</v>
+        <v>36871</v>
       </c>
       <c r="B1017" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1018">
       <c r="A1018" s="2" t="n">
-        <v>36869</v>
+        <v>36871</v>
       </c>
       <c r="B1018" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1019">
       <c r="A1019" s="2" t="n">
-        <v>36870</v>
+        <v>36871</v>
       </c>
       <c r="B1019" t="n">
         <v>12</v>
@@ -8595,31 +8595,31 @@
     </row>
     <row r="1020">
       <c r="A1020" s="2" t="n">
-        <v>36870</v>
+        <v>36871</v>
       </c>
       <c r="B1020" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1021">
       <c r="A1021" s="2" t="n">
-        <v>36870</v>
+        <v>36872</v>
       </c>
       <c r="B1021" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1022">
       <c r="A1022" s="2" t="n">
-        <v>36870</v>
+        <v>36872</v>
       </c>
       <c r="B1022" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1023">
       <c r="A1023" s="2" t="n">
-        <v>36870</v>
+        <v>36872</v>
       </c>
       <c r="B1023" t="n">
         <v>9</v>
@@ -8627,263 +8627,263 @@
     </row>
     <row r="1024">
       <c r="A1024" s="2" t="n">
-        <v>36871</v>
+        <v>36873</v>
       </c>
       <c r="B1024" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1025">
       <c r="A1025" s="2" t="n">
-        <v>36871</v>
+        <v>36873</v>
       </c>
       <c r="B1025" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1026">
       <c r="A1026" s="2" t="n">
-        <v>36871</v>
+        <v>36873</v>
       </c>
       <c r="B1026" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1027">
       <c r="A1027" s="2" t="n">
-        <v>36871</v>
+        <v>36873</v>
       </c>
       <c r="B1027" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1028">
       <c r="A1028" s="2" t="n">
-        <v>36872</v>
+        <v>36873</v>
       </c>
       <c r="B1028" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1029">
       <c r="A1029" s="2" t="n">
-        <v>36872</v>
+        <v>36874</v>
       </c>
       <c r="B1029" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1030">
       <c r="A1030" s="2" t="n">
-        <v>36872</v>
+        <v>36874</v>
       </c>
       <c r="B1030" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1031">
       <c r="A1031" s="2" t="n">
-        <v>36873</v>
+        <v>36875</v>
       </c>
       <c r="B1031" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1032">
       <c r="A1032" s="2" t="n">
-        <v>36873</v>
+        <v>36875</v>
       </c>
       <c r="B1032" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1033">
       <c r="A1033" s="2" t="n">
-        <v>36873</v>
+        <v>36875</v>
       </c>
       <c r="B1033" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1034">
       <c r="A1034" s="2" t="n">
-        <v>36873</v>
+        <v>36876</v>
       </c>
       <c r="B1034" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1035">
       <c r="A1035" s="2" t="n">
-        <v>36873</v>
+        <v>36876</v>
       </c>
       <c r="B1035" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1036">
       <c r="A1036" s="2" t="n">
-        <v>36874</v>
+        <v>36877</v>
       </c>
       <c r="B1036" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1037">
       <c r="A1037" s="2" t="n">
-        <v>36874</v>
+        <v>36878</v>
       </c>
       <c r="B1037" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1038">
       <c r="A1038" s="2" t="n">
-        <v>36875</v>
+        <v>36878</v>
       </c>
       <c r="B1038" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1039">
       <c r="A1039" s="2" t="n">
-        <v>36875</v>
+        <v>36878</v>
       </c>
       <c r="B1039" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1040">
       <c r="A1040" s="2" t="n">
-        <v>36875</v>
+        <v>36878</v>
       </c>
       <c r="B1040" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1041">
       <c r="A1041" s="2" t="n">
-        <v>36876</v>
+        <v>36878</v>
       </c>
       <c r="B1041" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1042">
       <c r="A1042" s="2" t="n">
-        <v>36876</v>
+        <v>36878</v>
       </c>
       <c r="B1042" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1043">
       <c r="A1043" s="2" t="n">
-        <v>36877</v>
+        <v>36879</v>
       </c>
       <c r="B1043" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1044">
       <c r="A1044" s="2" t="n">
-        <v>36878</v>
+        <v>36881</v>
       </c>
       <c r="B1044" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1045">
       <c r="A1045" s="2" t="n">
-        <v>36878</v>
+        <v>36881</v>
       </c>
       <c r="B1045" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1046">
       <c r="A1046" s="2" t="n">
-        <v>36878</v>
+        <v>36881</v>
       </c>
       <c r="B1046" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1047">
       <c r="A1047" s="2" t="n">
-        <v>36878</v>
+        <v>36881</v>
       </c>
       <c r="B1047" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1048">
       <c r="A1048" s="2" t="n">
-        <v>36878</v>
+        <v>36881</v>
       </c>
       <c r="B1048" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1049">
       <c r="A1049" s="2" t="n">
-        <v>36878</v>
+        <v>36882</v>
       </c>
       <c r="B1049" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1050">
       <c r="A1050" s="2" t="n">
-        <v>36879</v>
+        <v>36883</v>
       </c>
       <c r="B1050" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1051">
       <c r="A1051" s="2" t="n">
-        <v>36881</v>
+        <v>36883</v>
       </c>
       <c r="B1051" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1052">
       <c r="A1052" s="2" t="n">
-        <v>36881</v>
+        <v>36883</v>
       </c>
       <c r="B1052" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1053">
       <c r="A1053" s="2" t="n">
-        <v>36881</v>
+        <v>36883</v>
       </c>
       <c r="B1053" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1054">
       <c r="A1054" s="2" t="n">
-        <v>36881</v>
+        <v>36883</v>
       </c>
       <c r="B1054" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1055">
       <c r="A1055" s="2" t="n">
-        <v>36881</v>
+        <v>36884</v>
       </c>
       <c r="B1055" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1056">
       <c r="A1056" s="2" t="n">
-        <v>36882</v>
+        <v>36884</v>
       </c>
       <c r="B1056" t="n">
         <v>13</v>
@@ -8891,7 +8891,7 @@
     </row>
     <row r="1057">
       <c r="A1057" s="2" t="n">
-        <v>36883</v>
+        <v>36884</v>
       </c>
       <c r="B1057" t="n">
         <v>12</v>
@@ -8899,23 +8899,23 @@
     </row>
     <row r="1058">
       <c r="A1058" s="2" t="n">
-        <v>36883</v>
+        <v>36884</v>
       </c>
       <c r="B1058" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1059">
       <c r="A1059" s="2" t="n">
-        <v>36883</v>
+        <v>36884</v>
       </c>
       <c r="B1059" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1060">
       <c r="A1060" s="2" t="n">
-        <v>36883</v>
+        <v>36884</v>
       </c>
       <c r="B1060" t="n">
         <v>15</v>
@@ -8923,87 +8923,87 @@
     </row>
     <row r="1061">
       <c r="A1061" s="2" t="n">
-        <v>36883</v>
+        <v>36884</v>
       </c>
       <c r="B1061" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1062">
       <c r="A1062" s="2" t="n">
-        <v>36884</v>
+        <v>36885</v>
       </c>
       <c r="B1062" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1063">
       <c r="A1063" s="2" t="n">
-        <v>36884</v>
+        <v>36885</v>
       </c>
       <c r="B1063" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1064">
       <c r="A1064" s="2" t="n">
-        <v>36884</v>
+        <v>36885</v>
       </c>
       <c r="B1064" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1065">
       <c r="A1065" s="2" t="n">
-        <v>36884</v>
+        <v>36885</v>
       </c>
       <c r="B1065" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1066">
       <c r="A1066" s="2" t="n">
-        <v>36884</v>
+        <v>36885</v>
       </c>
       <c r="B1066" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1067">
       <c r="A1067" s="2" t="n">
-        <v>36884</v>
+        <v>36886</v>
       </c>
       <c r="B1067" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1068">
       <c r="A1068" s="2" t="n">
-        <v>36884</v>
+        <v>36886</v>
       </c>
       <c r="B1068" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1069">
       <c r="A1069" s="2" t="n">
-        <v>36885</v>
+        <v>36886</v>
       </c>
       <c r="B1069" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1070">
       <c r="A1070" s="2" t="n">
-        <v>36885</v>
+        <v>36886</v>
       </c>
       <c r="B1070" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1071">
       <c r="A1071" s="2" t="n">
-        <v>36885</v>
+        <v>36886</v>
       </c>
       <c r="B1071" t="n">
         <v>10</v>
@@ -9011,31 +9011,31 @@
     </row>
     <row r="1072">
       <c r="A1072" s="2" t="n">
-        <v>36885</v>
+        <v>36886</v>
       </c>
       <c r="B1072" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1073">
       <c r="A1073" s="2" t="n">
-        <v>36885</v>
+        <v>36886</v>
       </c>
       <c r="B1073" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1074">
       <c r="A1074" s="2" t="n">
-        <v>36886</v>
+        <v>36887</v>
       </c>
       <c r="B1074" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1075">
       <c r="A1075" s="2" t="n">
-        <v>36886</v>
+        <v>36887</v>
       </c>
       <c r="B1075" t="n">
         <v>11</v>
@@ -9043,15 +9043,15 @@
     </row>
     <row r="1076">
       <c r="A1076" s="2" t="n">
-        <v>36886</v>
+        <v>36887</v>
       </c>
       <c r="B1076" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1077">
       <c r="A1077" s="2" t="n">
-        <v>36886</v>
+        <v>36887</v>
       </c>
       <c r="B1077" t="n">
         <v>14</v>
@@ -9059,7 +9059,7 @@
     </row>
     <row r="1078">
       <c r="A1078" s="2" t="n">
-        <v>36886</v>
+        <v>36887</v>
       </c>
       <c r="B1078" t="n">
         <v>10</v>
@@ -9067,121 +9067,65 @@
     </row>
     <row r="1079">
       <c r="A1079" s="2" t="n">
-        <v>36886</v>
+        <v>36888</v>
       </c>
       <c r="B1079" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1080">
       <c r="A1080" s="2" t="n">
-        <v>36886</v>
+        <v>36888</v>
       </c>
       <c r="B1080" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1081">
       <c r="A1081" s="2" t="n">
-        <v>36887</v>
+        <v>36888</v>
       </c>
       <c r="B1081" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1082">
       <c r="A1082" s="2" t="n">
-        <v>36887</v>
+        <v>36888</v>
       </c>
       <c r="B1082" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1083">
       <c r="A1083" s="2" t="n">
-        <v>36887</v>
+        <v>36888</v>
       </c>
       <c r="B1083" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1084">
       <c r="A1084" s="2" t="n">
-        <v>36887</v>
+        <v>36888</v>
       </c>
       <c r="B1084" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1085">
       <c r="A1085" s="2" t="n">
-        <v>36887</v>
+        <v>36888</v>
       </c>
       <c r="B1085" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1086">
       <c r="A1086" s="2" t="n">
-        <v>36888</v>
+        <v>36890</v>
       </c>
       <c r="B1086" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="1087">
-      <c r="A1087" s="2" t="n">
-        <v>36888</v>
-      </c>
-      <c r="B1087" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="1088">
-      <c r="A1088" s="2" t="n">
-        <v>36888</v>
-      </c>
-      <c r="B1088" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="1089">
-      <c r="A1089" s="2" t="n">
-        <v>36888</v>
-      </c>
-      <c r="B1089" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1090">
-      <c r="A1090" s="2" t="n">
-        <v>36888</v>
-      </c>
-      <c r="B1090" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1091">
-      <c r="A1091" s="2" t="n">
-        <v>36888</v>
-      </c>
-      <c r="B1091" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="1092">
-      <c r="A1092" s="2" t="n">
-        <v>36888</v>
-      </c>
-      <c r="B1092" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="1093">
-      <c r="A1093" s="2" t="n">
-        <v>36890</v>
-      </c>
-      <c r="B1093" t="n">
         <v>10</v>
       </c>
     </row>
